--- a/assets/fuel-calcs.xlsx
+++ b/assets/fuel-calcs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewminer/Twitch/Minecraft/Instances/brunel-3/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBC5D47-FE69-D547-B740-7D0473A3F220}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EBD0DB-12EE-D948-941A-ABEC71D27D1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{7AE51FE2-D37D-804E-BEE6-C97F5A6C5473}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="ie biodiesel" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,33 +35,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>plantoil</t>
-  </si>
-  <si>
-    <t>ethanol</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="46">
   <si>
     <t>biodiesel</t>
   </si>
   <si>
-    <t>plants</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>RF net output</t>
-  </si>
-  <si>
-    <t>RF gross output</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
     <t>diesel</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>honey drop</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>plant oil</t>
+  </si>
+  <si>
+    <t>input 1</t>
+  </si>
+  <si>
+    <t>input 2</t>
+  </si>
+  <si>
+    <t>input 3</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>honeycomb</t>
+  </si>
+  <si>
+    <t>centrifuge</t>
+  </si>
+  <si>
+    <t>squeezer</t>
+  </si>
+  <si>
+    <t>qty 1</t>
+  </si>
+  <si>
+    <t>qty 2</t>
+  </si>
+  <si>
+    <t>qty 3</t>
+  </si>
+  <si>
+    <t>rf in</t>
+  </si>
+  <si>
+    <t>qty out</t>
+  </si>
+  <si>
+    <t>low yield bio solids</t>
+  </si>
+  <si>
+    <t>low yield fert.</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>high yield bio solids</t>
+  </si>
+  <si>
+    <t>high yield fert.</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>juice item</t>
+  </si>
+  <si>
+    <t>for.ethanol</t>
+  </si>
+  <si>
+    <t>ie.ethanol</t>
+  </si>
+  <si>
+    <t>fermenter</t>
+  </si>
+  <si>
+    <t>distiller</t>
+  </si>
+  <si>
+    <t>oily plant matter</t>
+  </si>
+  <si>
+    <t>sugary bio matter</t>
+  </si>
+  <si>
+    <t>refinery</t>
+  </si>
+  <si>
+    <t>RF power</t>
+  </si>
+  <si>
+    <t>diesel generator</t>
+  </si>
+  <si>
+    <t>gross power</t>
+  </si>
+  <si>
+    <t>power cost</t>
+  </si>
+  <si>
+    <t>net power</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>low yield fertilizer</t>
+  </si>
+  <si>
+    <t>high yield fertilizer</t>
+  </si>
+  <si>
+    <t>gather cost</t>
   </si>
 </sst>
 </file>
@@ -69,7 +181,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,10 +219,12 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -427,144 +541,1874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB7D62C-4FBD-C147-A71B-DF9E27B49908}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.8984375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3">
+        <f>I21</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1">
+        <f>L2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1">
+        <f>L3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1">
+        <f>L4*B4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <f>E12</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1">
+        <f>L5*B5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1">
+        <f>L6*B6</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <f>E20</f>
+        <v>8.6805555555555554</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1">
+        <f>L7*B7</f>
+        <v>177777.77777777778</v>
+      </c>
+      <c r="L7">
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3">
+        <f>G20</f>
+        <v>2.1701388888888888</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1">
+        <f>L8*B8</f>
+        <v>17777.777777777777</v>
+      </c>
+      <c r="L8">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3">
+        <f>G21</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1">
+        <f>10240*B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <f>E11</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <f>100/90*B10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1">
+        <f>12500/90*B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <f>I19</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <f>20/2000*B11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1">
+        <f>51200/2000*B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3">
+        <f>8/512*B12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="1">
+        <f>51200/512*B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
+        <f>20/1500*B13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4">
+        <f>1/1500*B13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <f>1000/1500*B13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1">
+        <f>4096/1500*B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3">
+        <f>20/1500*B14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4">
+        <f>1/1500*B14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3">
+        <f>1000/1500*B14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1">
+        <f>4096/1500*B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3">
+        <f>5/1500*B15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4">
+        <f>1/1500*B15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <f>1000/1500*B15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1">
+        <f>4096/1500*B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3">
+        <f>5/1500*B16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4">
+        <f>1/1500*B16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3">
+        <f>1000/1500*B16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1">
+        <f>4096/1500*B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <f>16/1500*B17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4">
+        <f>1/1500*B17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <f>1000/1500*B17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1">
+        <f>4096/1500*B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3">
+        <f>16/1500*B18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4">
+        <f>1/1500*B18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3">
+        <f>1000/1500*B18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="1">
+        <f>4096/1500*B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3">
+        <f>4/1500*B19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4">
+        <f>1/1500*B19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <f>1000/1500*B19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="1">
+        <f>4096/1500*B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <f>E27</f>
+        <v>3255.2083333333335</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <f>4/1500*B20</f>
+        <v>8.6805555555555554</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4">
+        <f>1/1500*B20</f>
+        <v>2.1701388888888888</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="3">
+        <f>1000/1500*B20</f>
+        <v>2170.1388888888887</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1">
+        <f>4096/1500*B20</f>
+        <v>8888.8888888888887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <f>40/1500*B21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4">
+        <f>1/1500*B21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3">
+        <f>1000/1500*B21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1">
+        <f>4096/1500*B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3">
+        <f>10/1500*B22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4">
+        <f>1/1500*B22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3">
+        <f>1000/1500*B22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1">
+        <f>4096/1500*B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3">
+        <f>32/1500*B23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4">
+        <f>1/1500*B23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="3">
+        <f>1000/1500*B23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1">
+        <f>4096/1500*B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3">
+        <f>8/1500*B24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="4">
+        <f>1/1500*B24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3">
+        <f>1000/1500*B24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="1">
+        <f>4096/1500*B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3">
+        <f>20/4000*B25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="1">
+        <f>64000/4000*B25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3">
+        <f>1/350*B26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="1">
+        <f>256/350*B26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <f>G29</f>
+        <v>976.5625</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <f>100/30*B27</f>
+        <v>3255.2083333333335</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1">
+        <f>2000/30*B27</f>
+        <v>65104.166666666672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <f>G30</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="3">
+        <f>8/640*B28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="1">
+        <f>5120/640*B28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <f>E33</f>
+        <v>1953.125</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3">
+        <f>50/100*B29</f>
+        <v>976.5625</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="4">
+        <f>50/100*B29</f>
+        <v>976.5625</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="1">
+        <f>500/100*B29</f>
+        <v>9765.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3">
+        <f>50/100*B30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="4">
+        <f>50/100*B30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="1">
+        <f>500/100*B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <f>100/40*B31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1">
+        <f>4096/40*B31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <f>1000/512000*B33</f>
+        <v>1953.125</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <f>1000/512000*B34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <f>SUM(B33:B34)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1">
+        <f>SUM(K:K)</f>
+        <v>279314.23611111112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <f>B41-B42</f>
+        <v>720685.76388888888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2">
+        <f>B43/B41</f>
+        <v>0.72068576388888883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8237D47D-80C0-EA41-B782-0D02C53626B3}">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.8984375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3">
+        <f>I19</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1">
+        <f>0.128*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <f>E8</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1">
+        <f>4096*B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
+        <f>E26</f>
+        <v>12.20703125</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1">
+        <f>2048*B4</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <f>E10</f>
+        <v>15.2587890625</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1">
+        <f>2048/1*B5</f>
+        <v>31250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1">
+        <f>1024/1*B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3">
+        <f>G19</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1">
+        <f>10240*B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <f>100/90*B8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1">
+        <f>12500/90*B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B9" s="1">
+        <f>I17</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <f>20/2000*B9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1">
+        <f>51200/2000*B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <f>E28</f>
+        <v>976.5625</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <f>8/512*B10</f>
+        <v>15.2587890625</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
+        <f>51200/512*B10</f>
+        <v>97656.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <f>20/1500*B11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4">
+        <f>1/1500*B11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3">
+        <f>1000/1500*B11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1">
+        <f>4096/1500*B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <f>20/1500*B12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4">
+        <f>1/1500*B12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3">
+        <f>1000/1500*B12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1">
+        <f>4096/1500*B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3">
+        <f>5/1500*B13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4">
+        <f>1/1500*B13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <f>1000/1500*B13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1">
+        <f>4096/1500*B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <f>5/1500*B14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4">
+        <f>1/1500*B14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3">
+        <f>1000/1500*B14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1">
+        <f>4096/1500*B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3">
+        <f>16/1500*B15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4">
+        <f>1/1500*B15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <f>1000/1500*B15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1">
+        <f>4096/1500*B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <f>16/1500*B16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4">
+        <f>1/1500*B16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3">
+        <f>1000/1500*B16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1">
+        <f>4096/1500*B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3">
+        <f>4/1500*B17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4">
+        <f>1/1500*B17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <f>1000/1500*B17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1">
+        <f>4096/1500*B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3">
+        <f>4/1500*B18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4">
+        <f>1/1500*B18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3">
+        <f>1000/1500*B18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="1">
+        <f>4096/1500*B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <f>E25</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3">
+        <f>40/1500*B19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="4">
+        <f>1/1500*B19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3">
+        <f>1000/1500*B19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="1">
+        <f>4096/1500*B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <f>10/1500*B20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="4">
+        <f>1/1500*B20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3">
+        <f>1000/1500*B20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1">
+        <f>4096/1500*B20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <f>32/1500*B21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="4">
+        <f>1/1500*B21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3">
+        <f>1000/1500*B21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1">
+        <f>4096/1500*B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3">
+        <f>8/1500*B22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="4">
+        <f>1/1500*B22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3">
+        <f>1000/1500*B22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1">
+        <f>4096/1500*B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="3">
+        <f>20/4000*B23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="1">
+        <f>64000/4000*B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3">
+        <f>1/350*B24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="1">
+        <f>256/350*B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <f>G27</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <f>100/30*B25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1">
+        <f>2000/30*B25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <f>G28</f>
+        <v>976.5625</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="3">
+        <f>8/640*B26</f>
+        <v>12.20703125</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="1">
+        <f>5120/640*B26</f>
+        <v>7812.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
+        <f>50/100*B27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="4">
+        <f>50/100*B27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="1">
+        <f>500/100*B27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <f>E31</f>
+        <v>1953.125</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
+        <f>50/100*B28</f>
+        <v>976.5625</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="4">
+        <f>50/100*B28</f>
+        <v>976.5625</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="1">
+        <f>500/100*B28</f>
+        <v>9765.625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1">
-        <f>A2*8</f>
-        <v>512</v>
-      </c>
-      <c r="C2" s="1">
-        <f>B2+B6</f>
-        <v>1024</v>
-      </c>
-      <c r="D2" s="1">
-        <f>C2*512</f>
-        <v>524288</v>
-      </c>
-      <c r="E2" s="1">
-        <f>D2-C3</f>
-        <v>416768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <f>B2*128</f>
-        <v>65536</v>
-      </c>
-      <c r="C3" s="1">
-        <f>B3+B7+(C2*5)+8*B2</f>
-        <v>107520</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2">
-        <f>E2/D2</f>
-        <v>0.794921875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B29" s="1">
+        <f>E32</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f>A2</f>
-        <v>64</v>
-      </c>
-      <c r="B6" s="1">
-        <f>A6*8</f>
-        <v>512</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <f>B6*64</f>
-        <v>32768</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2500</v>
-      </c>
-      <c r="B12" s="1">
-        <f>A12*0.4</f>
-        <v>1000</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <f>812.2*B12</f>
-        <v>812200</v>
-      </c>
-      <c r="E12" s="1">
-        <f>D12-B13</f>
-        <v>732200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <f>A12*32</f>
-        <v>80000</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2">
-        <f>E12/D12</f>
-        <v>0.90150209308052209</v>
+      <c r="E29" s="3">
+        <f>100/40*B29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="1">
+        <f>4096/40*B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <f>1000/512000*B31</f>
+        <v>1953.125</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <f>1000/512000*B32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <f>SUM(B31:B32)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <f>SUM(K:K)</f>
+        <v>171484.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <f>B39-B40</f>
+        <v>828515.625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <f>B41/B39</f>
+        <v>0.82851562499999998</v>
       </c>
     </row>
   </sheetData>

--- a/assets/fuel-calcs.xlsx
+++ b/assets/fuel-calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewminer/Twitch/Minecraft/Instances/brunel-3/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF4FCDA-AD55-FE4B-8056-046DBE1E8528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA247B-8930-CD41-B7C7-0E870950AD8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="460" windowWidth="34140" windowHeight="28340" activeTab="4" xr2:uid="{7AE51FE2-D37D-804E-BEE6-C97F5A6C5473}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" activeTab="6" xr2:uid="{7AE51FE2-D37D-804E-BEE6-C97F5A6C5473}"/>
   </bookViews>
   <sheets>
     <sheet name="worksheet" sheetId="1" r:id="rId1"/>
@@ -6163,8 +6163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E01491-3967-D748-BDE4-30FCB604639B}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -8369,7 +8369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93638DD5-F4B4-1C48-94A9-5CE13A38D571}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>

--- a/assets/fuel-calcs.xlsx
+++ b/assets/fuel-calcs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewminer/Twitch/Minecraft/Instances/brunel-3/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewminer/Documents/curseforge/minecraft/Instances/brunel-3/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD270452-D883-5748-9480-438CA12CD5D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57599D76-53BE-494D-97CA-57431953A1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" activeTab="1" xr2:uid="{7AE51FE2-D37D-804E-BEE6-C97F5A6C5473}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{7AE51FE2-D37D-804E-BEE6-C97F5A6C5473}"/>
   </bookViews>
   <sheets>
     <sheet name="worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="results" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
   <si>
     <t>biodiesel</t>
   </si>
@@ -175,12 +176,6 @@
     <t>portable generator</t>
   </si>
   <si>
-    <t>pumpjack (full)</t>
-  </si>
-  <si>
-    <t>pumpjack (residual)</t>
-  </si>
-  <si>
     <t>diesel excess gas.</t>
   </si>
   <si>
@@ -203,6 +198,9 @@
   </si>
   <si>
     <t>Diesel + Gasoline (full)</t>
+  </si>
+  <si>
+    <t>pumpjack</t>
   </si>
 </sst>
 </file>
@@ -571,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB7D62C-4FBD-C147-A71B-DF9E27B49908}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -632,63 +630,63 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <f>2*E35</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1024</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L36" si="0">B2*K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <f>SUMIF(D:D, A2, E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="3">
+        <f>SUMIF(D:D, A3, E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
-        <f>100/90*B2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="E3" s="3">
+        <f>100/90*B3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K3" s="4">
         <f>12500/90</f>
         <v>138.88888888888889</v>
       </c>
-      <c r="L2" s="1">
-        <f>B2*K2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3">
-        <f>SUMIF(D:D, A3, E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="4">
-        <v>10240</v>
-      </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L35" si="0">B3*K3</f>
+        <f>B3*K3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3">
-        <f>SUMIF(F:F, A4, G:G)</f>
+        <f>SUMIF(D:D, A4, E:E)</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="4">
-        <v>8192</v>
+        <v>10240</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
@@ -697,17 +695,17 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
-        <f>SUMIF(D:D, A5, E:E)</f>
+        <f>SUMIF(F:F, A5, G:G)</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="4">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
@@ -716,7 +714,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <f>SUMIF(D:D, A6, E:E)</f>
@@ -726,7 +724,7 @@
         <v>41</v>
       </c>
       <c r="K6" s="4">
-        <v>1024</v>
+        <v>4096</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
@@ -735,17 +733,17 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
-        <f>SUMIF(F:F, A7, G:G)</f>
+        <f>SUMIF(D:D, A7, E:E)</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K7" s="4">
-        <v>10240</v>
+        <v>256</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
@@ -754,17 +752,17 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
-        <f>SUMIF(D:D, A8, E:E)</f>
+        <f>SUMIF(F:F, A8, G:G)</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K8" s="4">
-        <v>1024</v>
+        <v>10240</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
@@ -773,7 +771,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3">
         <f>SUMIF(D:D, A9, E:E)</f>
@@ -792,92 +790,80 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3">
-        <f>SUMIF(H:H, A10, I:I)</f>
-        <v>0</v>
+        <f>SUMIF(D:D, A10, E:E)</f>
+        <v>488.28125</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K10" s="4">
-        <v>0.25</v>
+        <v>512</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
-        <f>SUMIF(D:D, A11, E:E)</f>
-        <v>1953.125</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <f>100/40*B11</f>
-        <v>4882.8125</v>
+        <f>SUMIF(H:H, A11, I:I)</f>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K11" s="4">
-        <f>1024/40</f>
-        <v>25.6</v>
+        <v>0.25</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3">
-        <f>B11/40*45</f>
-        <v>2197.265625</v>
+        <f>SUMIF(D:D, A12, E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f>1000/400*B12</f>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="4">
+        <v>115.2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <f>-(256/5)</f>
         <v>-51.2</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>-112500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3">
-        <f>SUMIF(F:F, A13, G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <f>100/30*B13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="4">
-        <f>1024/30</f>
-        <v>34.133333333333333</v>
-      </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -885,25 +871,24 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
-        <f>SUMIF(D:D, A14, E:E)</f>
+        <f>SUMIF(F:F, A14, G:G)</f>
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <f>100/45*B14</f>
+        <f>1000/800*B14</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K14" s="4">
-        <f>1024/45</f>
-        <v>22.755555555555556</v>
+        <v>57.6</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
@@ -912,25 +897,24 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3">
-        <f>SUMIF(F:F, A15, G:G)</f>
+        <f>SUMIF(D:D, A15, E:E)</f>
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <f>8/640*B15</f>
+        <f>100/45*B15</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="4">
-        <f>5120/640</f>
-        <v>8</v>
+        <v>115.2</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
@@ -939,40 +923,28 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUMIF(F:F, A16, G:G)</f>
+        <v>976.5625</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3">
-        <f>20/1500*B16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" ref="G16:G27" si="1">1/1500*B16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" ref="I16:I27" si="2">1000/1500*B16</f>
-        <v>0</v>
+        <f>1/2*B16</f>
+        <v>488.28125</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" ref="K16:K27" si="3">4096/1500</f>
-        <v>2.7306666666666666</v>
+        <v>128</v>
       </c>
       <c r="L16" s="1">
-        <f>B16*K16</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>125000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -984,28 +956,28 @@
         <v>19</v>
       </c>
       <c r="E17" s="3">
-        <f>20/1500*B17</f>
+        <f>20/2000*B17</f>
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="4">
-        <f>1/1500*B17</f>
+        <f>1/2000*B17</f>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <f>1000/1500*B17</f>
+        <f>1000/2000*B17</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K17:K28" si="1">4096/1500</f>
         <v>2.7306666666666666</v>
       </c>
       <c r="L17" s="1">
@@ -1019,31 +991,31 @@
       </c>
       <c r="B18" s="3"/>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3">
-        <f>5/1500*B18</f>
+        <f>20/2000*B18</f>
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="4">
-        <f>1/1500*B18</f>
+        <f>1/2000*B18</f>
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I18" s="3">
-        <f>1000/1500*B18</f>
+        <f>1000/2000*B18</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L18" s="1">
@@ -1060,32 +1032,32 @@
         <v>23</v>
       </c>
       <c r="E19" s="3">
-        <f>5/1500*B19</f>
+        <f>5/2000*B19</f>
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B19</f>
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B19</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
+        <f>B19*K19</f>
         <v>0</v>
       </c>
     </row>
@@ -1095,31 +1067,31 @@
       </c>
       <c r="B20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E20" s="3">
-        <f>16/1500*B20</f>
+        <f>5/2000*B20</f>
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B20</f>
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B20</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L20" s="1">
@@ -1136,28 +1108,28 @@
         <v>19</v>
       </c>
       <c r="E21" s="3">
-        <f>16/1500*B21</f>
+        <f>16/2000*B21</f>
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B21</f>
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B21</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L21" s="1">
@@ -1169,33 +1141,36 @@
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <f>E14</f>
+        <v>0</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3">
-        <f>4/1500*B22</f>
+        <f>16/2000*B22</f>
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B22</f>
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B22</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L22" s="1">
@@ -1212,32 +1187,32 @@
         <v>23</v>
       </c>
       <c r="E23" s="3">
-        <f>4/1500*B23</f>
+        <f>4/2000*B23</f>
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B23</f>
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B23</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L23" s="1">
-        <f>B23*K23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1247,35 +1222,35 @@
       </c>
       <c r="B24" s="3"/>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3">
-        <f>40/1500*B24</f>
+        <f>4/2000*B24</f>
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B24</f>
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B24</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="0"/>
+        <f>B24*K24</f>
         <v>0</v>
       </c>
     </row>
@@ -1285,31 +1260,31 @@
       </c>
       <c r="B25" s="3"/>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E25" s="3">
-        <f>10/1500*B25</f>
+        <f>40/2000*B25</f>
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B25</f>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B25</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L25" s="1">
@@ -1323,31 +1298,31 @@
       </c>
       <c r="B26" s="3"/>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3">
-        <f>32/1500*B26</f>
+        <f>10/2000*B26</f>
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B26</f>
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B26</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L26" s="1">
@@ -1361,31 +1336,31 @@
       </c>
       <c r="B27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3">
-        <f>8/1500*B27</f>
+        <f>32/2000*B27</f>
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="1"/>
+        <f>1/2000*B27</f>
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/2000*B27</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L27" s="1">
@@ -1395,15 +1370,36 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3">
+        <f>8/2000*B28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="4">
+        <f>1/2000*B28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="3">
+        <f>1000/2000*B28</f>
+        <v>0</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="K28" s="4">
-        <f>1024/6</f>
-        <v>170.66666666666666</v>
+        <f t="shared" si="1"/>
+        <v>2.7306666666666666</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="0"/>
@@ -1412,134 +1408,124 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3">
-        <f>E11</f>
-        <v>4882.8125</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K29" s="4">
-        <f>1024/15</f>
-        <v>68.266666666666666</v>
+        <v>6.4</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="0"/>
-        <v>333333.33333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <f>E12</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="3">
-        <f>50/100*B30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E31" s="3">
+        <f>5/10*B31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="4">
-        <f>50/100*B30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="G31" s="4">
+        <f>5/10*B31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K31" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3">
+        <f>E38</f>
+        <v>1953.125</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3">
+        <f>50/100*B32</f>
+        <v>976.5625</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="4">
+        <f>50/100*B32</f>
+        <v>976.5625</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="4">
         <f>500/100</f>
         <v>5</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="3">
-        <f>E37</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3">
-        <f>50/100*B31</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="4">
-        <f>50/100*B31</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="4">
-        <f>500/100</f>
-        <v>5</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>9765.625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
-        <f>SUMIF(H:H,A32,I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B33" s="3">
+        <f>SUMIF(H:H,A33,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <f>20/2000*B32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="E33" s="3">
+        <f>20/2000*B33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K33" s="4">
         <f>51200/2000</f>
         <v>25.6</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="3">
-        <f>20/4000*B33</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="4">
-        <f>64000/4000</f>
-        <v>16</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="0"/>
@@ -1552,18 +1538,17 @@
       </c>
       <c r="B34" s="3"/>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="3">
-        <f>1/350*B34</f>
+        <f>1/16*B34</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="4">
-        <f>256/350</f>
-        <v>0.73142857142857143</v>
+        <v>64</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="0"/>
@@ -1572,44 +1557,54 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3">
-        <f>SUMIF(D:D, A35, E:E)</f>
+        <f>I22</f>
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E35" s="3">
-        <f>8/512*B35</f>
+        <f>1/32*B35</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="4">
-        <f>51200/512</f>
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <f>1000/512000*B37</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>36</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3">
+        <f>E31</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="3">
+        <f>1/16*B36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4">
+        <v>64</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1620,7 +1615,7 @@
         <v>1000000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
         <f>1000/512000*B38</f>
@@ -1635,56 +1630,71 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <f>1000/640000*B39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="3">
-        <f>5/256*B39</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="E40" s="3">
+        <f>5/256*B40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="1">
-        <f>SUM(B37:B39)</f>
-        <v>1000000</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1">
-        <f>SUM(L:L)</f>
-        <v>270833.33333333331</v>
+        <f>SUM(B38:B40)</f>
+        <v>1000000</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1">
-        <f>B45-B46</f>
-        <v>729166.66666666674</v>
+        <f>SUM(L:L)</f>
+        <v>384765.625</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="1">
+        <f>B46-B47</f>
+        <v>615234.375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="2">
-        <f>B47/B45</f>
-        <v>0.72916666666666674</v>
+      <c r="B49" s="2">
+        <f>B48/B46</f>
+        <v>0.615234375</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M35">
-    <sortCondition ref="J2:J35"/>
-    <sortCondition ref="A2:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M36">
+    <sortCondition ref="J3:J36"/>
+    <sortCondition ref="A3:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1694,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5E60D2-D857-7D42-B91A-1C15BBBDB9B7}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1705,37 +1715,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/assets/fuel-calcs.xlsx
+++ b/assets/fuel-calcs.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewminer/Documents/curseforge/minecraft/Instances/brunel-3/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewminer/Twitch/Minecraft/Instances/brunel-3/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57599D76-53BE-494D-97CA-57431953A1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E705F7-E7D2-B544-A184-C043CE5DCA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{7AE51FE2-D37D-804E-BEE6-C97F5A6C5473}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27420" windowHeight="25640" xr2:uid="{7AE51FE2-D37D-804E-BEE6-C97F5A6C5473}"/>
   </bookViews>
   <sheets>
     <sheet name="worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="results" sheetId="16" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -571,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB7D62C-4FBD-C147-A71B-DF9E27B49908}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -794,7 +793,7 @@
       </c>
       <c r="B10" s="3">
         <f>SUMIF(D:D, A10, E:E)</f>
-        <v>488.28125</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>
@@ -804,7 +803,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -832,14 +831,14 @@
       </c>
       <c r="B12" s="3">
         <f>SUMIF(D:D, A12, E:E)</f>
-        <v>0</v>
+        <v>1562.5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3">
         <f>1000/400*B12</f>
-        <v>0</v>
+        <v>3906.25</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
@@ -849,7 +848,7 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -927,14 +926,14 @@
       </c>
       <c r="B16" s="3">
         <f>SUMIF(F:F, A16, G:G)</f>
-        <v>976.5625</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="3">
         <f>1/2*B16</f>
-        <v>488.28125</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>30</v>
@@ -944,7 +943,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -963,21 +962,21 @@
         <v>20</v>
       </c>
       <c r="G17" s="4">
-        <f>1/2000*B17</f>
+        <f t="shared" ref="G17:G28" si="1">1/2000*B17</f>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="3">
-        <f>1000/2000*B17</f>
+        <f t="shared" ref="I17:I28" si="2">1000/2000*B17</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" ref="K17:K28" si="1">4096/1500</f>
+        <f t="shared" ref="K17:K28" si="3">4096/1500</f>
         <v>2.7306666666666666</v>
       </c>
       <c r="L17" s="1">
@@ -1001,21 +1000,21 @@
         <v>20</v>
       </c>
       <c r="G18" s="4">
-        <f>1/2000*B18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="3">
-        <f>1000/2000*B18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L18" s="1">
@@ -1039,21 +1038,21 @@
         <v>20</v>
       </c>
       <c r="G19" s="4">
-        <f>1/2000*B19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="3">
-        <f>1000/2000*B19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L19" s="1">
@@ -1077,21 +1076,21 @@
         <v>20</v>
       </c>
       <c r="G20" s="4">
-        <f>1/2000*B20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="3">
-        <f>1000/2000*B20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L20" s="1">
@@ -1115,21 +1114,21 @@
         <v>24</v>
       </c>
       <c r="G21" s="4">
-        <f>1/2000*B21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <f>1000/2000*B21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L21" s="1">
@@ -1156,21 +1155,21 @@
         <v>24</v>
       </c>
       <c r="G22" s="4">
-        <f>1/2000*B22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="3">
-        <f>1000/2000*B22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L22" s="1">
@@ -1194,21 +1193,21 @@
         <v>24</v>
       </c>
       <c r="G23" s="4">
-        <f>1/2000*B23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="3">
-        <f>1000/2000*B23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L23" s="1">
@@ -1232,21 +1231,21 @@
         <v>24</v>
       </c>
       <c r="G24" s="4">
-        <f>1/2000*B24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="3">
-        <f>1000/2000*B24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L24" s="1">
@@ -1270,21 +1269,21 @@
         <v>20</v>
       </c>
       <c r="G25" s="4">
-        <f>1/2000*B25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="3">
-        <f>1000/2000*B25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L25" s="1">
@@ -1308,21 +1307,21 @@
         <v>20</v>
       </c>
       <c r="G26" s="4">
-        <f>1/2000*B26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="3">
-        <f>1000/2000*B26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L26" s="1">
@@ -1346,21 +1345,21 @@
         <v>24</v>
       </c>
       <c r="G27" s="4">
-        <f>1/2000*B27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="3">
-        <f>1000/2000*B27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L27" s="1">
@@ -1384,21 +1383,21 @@
         <v>24</v>
       </c>
       <c r="G28" s="4">
-        <f>1/2000*B28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="3">
-        <f>1000/2000*B28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7306666666666666</v>
       </c>
       <c r="L28" s="1">
@@ -1428,7 +1427,7 @@
       </c>
       <c r="B30" s="3">
         <f>E12</f>
-        <v>0</v>
+        <v>3906.25</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>54</v>
@@ -1438,7 +1437,7 @@
       </c>
       <c r="L30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1477,21 +1476,21 @@
       </c>
       <c r="B32" s="3">
         <f>E38</f>
-        <v>1953.125</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="3">
         <f>50/100*B32</f>
-        <v>976.5625</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="4">
         <f>50/100*B32</f>
-        <v>976.5625</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>34</v>
@@ -1502,7 +1501,7 @@
       </c>
       <c r="L32" s="1">
         <f t="shared" si="0"/>
-        <v>9765.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1611,15 +1610,12 @@
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
-        <v>1000000</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="3">
         <f>1000/512000*B38</f>
-        <v>1953.125</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>36</v>
@@ -1629,12 +1625,15 @@
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B39" s="1">
+        <v>1000000</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3">
         <f>1000/640000*B39</f>
-        <v>0</v>
+        <v>1562.5</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>36</v>
@@ -1670,7 +1669,7 @@
       </c>
       <c r="B47" s="1">
         <f>SUM(L:L)</f>
-        <v>384765.625</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1679,7 +1678,7 @@
       </c>
       <c r="B48" s="1">
         <f>B46-B47</f>
-        <v>615234.375</v>
+        <v>795000</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1687,7 @@
       </c>
       <c r="B49" s="2">
         <f>B48/B46</f>
-        <v>0.615234375</v>
+        <v>0.79500000000000004</v>
       </c>
     </row>
   </sheetData>
